--- a/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.3922520227809576</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.87146358548601</v>
+        <v>-4.871463585486005</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4243034239331236</v>
@@ -649,7 +649,7 @@
         <v>-0.04871537705337377</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2263353776826397</v>
+        <v>-0.2263353776826394</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.39621428007804</v>
+        <v>-10.25895090177376</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.198602980844964</v>
+        <v>-8.465701133476207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.504125189620007</v>
+        <v>-3.337514286409069</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.56518012617784</v>
+        <v>-9.344495337291885</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5782828848336063</v>
+        <v>-0.554457319505867</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.405585150703314</v>
+        <v>-0.4230906119438645</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3478049956470518</v>
+        <v>-0.3445381528075594</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3870664571225478</v>
+        <v>-0.3759126478322765</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.243071833989454</v>
+        <v>-3.738823853412749</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.3218079726549753</v>
+        <v>-0.5581693636571593</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.635003886300566</v>
+        <v>2.317692512581563</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.3110278690173227</v>
+        <v>-0.7335634740734379</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.2278880242871385</v>
+        <v>-0.253736059957042</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.01327576954626762</v>
+        <v>-0.03193312599184388</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4415758532704984</v>
+        <v>0.3568208856545386</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.01221938058347425</v>
+        <v>-0.03762268386055938</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.8266905522879647</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.5603003702460557</v>
+        <v>-0.5603003702460529</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3002593088616676</v>
@@ -749,7 +749,7 @@
         <v>-0.06354890000429571</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.03701985665195698</v>
+        <v>-0.0370198566519568</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.456538656070665</v>
+        <v>-8.317027240408075</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.426837215313147</v>
+        <v>-5.989141344567758</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.908221724491529</v>
+        <v>-3.905520651373878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.783617841392358</v>
+        <v>-4.171197764025955</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.449916424315236</v>
+        <v>-0.4459240965691971</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3555962953502546</v>
+        <v>-0.3457747170265032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.270871114572687</v>
+        <v>-0.2694587028440508</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2118805693916927</v>
+        <v>-0.242204302564835</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-1.863148469991498</v>
+        <v>-1.76489400398805</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01278283212182957</v>
+        <v>0.2119734972388526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.091989088302218</v>
+        <v>2.039166398071593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.622537311064317</v>
+        <v>2.345976001677776</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1203351510718525</v>
+        <v>-0.1191817161358377</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001372100147851747</v>
+        <v>0.02029244020337112</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1836866281366746</v>
+        <v>0.1751087369591189</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.210982977135737</v>
+        <v>0.176985859813395</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.549489415480297</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-5.171560131646213</v>
+        <v>-5.171560131646211</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.01259208889205548</v>
@@ -849,7 +849,7 @@
         <v>0.1640578902411958</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2790079669934427</v>
+        <v>-0.2790079669934426</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.142219485453026</v>
+        <v>-4.186672314698172</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.10723581529153</v>
+        <v>-7.638167307066555</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.336709004785493</v>
+        <v>-1.514244138621399</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.14771595302043</v>
+        <v>-9.335013189234374</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2411887164365258</v>
+        <v>-0.2510031728434795</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3905933351402376</v>
+        <v>-0.3794140427606244</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.07617108369087036</v>
+        <v>-0.08946460319134911</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4360387225900537</v>
+        <v>-0.4436327754595923</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.388379271836747</v>
+        <v>3.290071375443798</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1738943613647155</v>
+        <v>0.08876859900898398</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.33304121739177</v>
+        <v>6.650000398053068</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.41516400431189</v>
+        <v>-0.7954583755585857</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2612832926305582</v>
+        <v>0.263272359472759</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.005738312191215782</v>
+        <v>0.004932023180351894</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4720685113539136</v>
+        <v>0.4907161122741455</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.08393228198406387</v>
+        <v>-0.04824771081001377</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>-0.04979842807934048</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3131460662177085</v>
+        <v>-0.3131460662177084</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.246846126825372</v>
+        <v>-4.363541464409877</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.562202680503693</v>
+        <v>-8.595635191645272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.17051541734766</v>
+        <v>-3.810513875370356</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.698829945447184</v>
+        <v>-7.761468867442618</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.261998107970169</v>
+        <v>-0.2678180024424207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4154697617270622</v>
+        <v>-0.4235186134286318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2247237023888036</v>
+        <v>-0.2213135319424026</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4735133386520777</v>
+        <v>-0.4711701514473742</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.903439658368679</v>
+        <v>1.863343432858178</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.042042534331425</v>
+        <v>-2.075719879173967</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.531518382603361</v>
+        <v>2.56119225090325</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.59811975067535</v>
+        <v>-1.53831958047208</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1375707615986991</v>
+        <v>0.1345170991265903</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.118511325806828</v>
+        <v>-0.1231639087862403</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1754211418014747</v>
+        <v>0.1757508683100813</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1172051795626799</v>
+        <v>-0.1208763696049381</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.1050984496961033</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-3.636440356200849</v>
+        <v>-3.636440356200846</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2088111782295789</v>
@@ -1049,7 +1049,7 @@
         <v>0.007804951518200707</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2143002327480279</v>
+        <v>-0.2143002327480278</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.851623507770142</v>
+        <v>-5.021382432836167</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.875903419461423</v>
+        <v>-5.850903177993096</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.643632501214412</v>
+        <v>-1.512609113329353</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.440216593813236</v>
+        <v>-5.755339884873367</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2912893312226296</v>
+        <v>-0.3014101849602978</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3140247252926021</v>
+        <v>-0.317866624033761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1128991859001116</v>
+        <v>-0.106700585272009</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2966452566876477</v>
+        <v>-0.3115835930934575</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.578288845169964</v>
+        <v>-1.616774294195156</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.497543095141932</v>
+        <v>-2.314586399091741</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.696895342952338</v>
+        <v>1.890885002471636</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.752067290834397</v>
+        <v>-1.948502938254375</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1061488201614249</v>
+        <v>-0.1081968963647896</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1488675321868747</v>
+        <v>-0.1394414826285828</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1340205082448734</v>
+        <v>0.1533330154256872</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1097377827886708</v>
+        <v>-0.123924179962934</v>
       </c>
     </row>
     <row r="19">
